--- a/DLO.xlsx
+++ b/DLO.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6AAB559-899E-45BC-9935-12251C1DD4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29902329-B4E9-4B0E-BB83-AF3FBB8DFEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4510" yWindow="3230" windowWidth="26500" windowHeight="15380" xr2:uid="{65B49EC7-D039-4290-835E-12A41ACAE10E}"/>
+    <workbookView xWindow="53940" yWindow="9560" windowWidth="21420" windowHeight="16260" activeTab="1" xr2:uid="{65B49EC7-D039-4290-835E-12A41ACAE10E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Price</t>
   </si>
@@ -60,13 +61,40 @@
   </si>
   <si>
     <t>Founded</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>S&amp;M</t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +103,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -101,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -109,6 +144,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8198B05-5EA4-40D2-AF25-E0AB4905A124}">
   <dimension ref="J2:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -459,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>8.59</v>
+        <v>8.89</v>
       </c>
     </row>
     <row r="3" spans="10:12" x14ac:dyDescent="0.25">
@@ -479,7 +515,7 @@
       </c>
       <c r="K4" s="3">
         <f>+K2*K3</f>
-        <v>2649.3836521800004</v>
+        <v>2741.9116027800005</v>
       </c>
     </row>
     <row r="5" spans="10:12" x14ac:dyDescent="0.25">
@@ -510,7 +546,7 @@
       </c>
       <c r="K7" s="3">
         <f>+K4-K5+K6</f>
-        <v>2117.7636521800005</v>
+        <v>2210.2916027800006</v>
       </c>
     </row>
     <row r="10" spans="10:12" x14ac:dyDescent="0.25">
@@ -519,6 +555,136 @@
       </c>
       <c r="K10" s="1">
         <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495AF62D-EB3B-4A5E-B7C5-CCD42B9BF06C}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
+        <v>418.92500000000001</v>
+      </c>
+      <c r="D3" s="5">
+        <v>650.351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>216.75800000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>373.49200000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <f>+C3-C4</f>
+        <v>202.167</v>
+      </c>
+      <c r="D5" s="3">
+        <f>+D3-D4</f>
+        <v>276.85899999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6.3479999999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>13.335000000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>17.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <v>48.343000000000004</v>
+      </c>
+      <c r="D8" s="3">
+        <v>70.567999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" ref="C9" si="0">SUM(C6:C8)</f>
+        <v>68.02600000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUM(D6:D8)</f>
+        <v>100.33799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" ref="C10" si="1">C5-C9</f>
+        <v>134.14099999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <f>D5-D9</f>
+        <v>176.52099999999999</v>
       </c>
     </row>
   </sheetData>
